--- a/pybna/sql/stress/tables/stress_bike_lane_km.xlsx
+++ b/pybna/sql/stress/tables/stress_bike_lane_km.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\pybna\pybna\sql\stress\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25496AB5-3F99-49DF-8A67-D6AD2FE1C726}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA93591-6BDD-4831-B407-741601D47EFC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F3E79472-7ECD-48CF-B429-F08E35A731E7}"/>
+    <workbookView xWindow="30255" yWindow="2745" windowWidth="21600" windowHeight="11775" xr2:uid="{F3E79472-7ECD-48CF-B429-F08E35A731E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="9">
   <si>
     <t>f</t>
   </si>
@@ -409,9 +409,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AEACECA-1E2B-401F-92A0-EED56FF40BBC}">
-  <dimension ref="A1:G76"/>
+  <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1682,9 +1684,6 @@
       <c r="A64">
         <v>3</v>
       </c>
-      <c r="B64" t="s">
-        <v>1</v>
-      </c>
       <c r="C64" t="s">
         <v>1</v>
       </c>
@@ -1692,22 +1691,19 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F64">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="G64">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>3</v>
       </c>
-      <c r="B65" t="s">
-        <v>1</v>
-      </c>
       <c r="C65" t="s">
         <v>1</v>
       </c>
@@ -1715,21 +1711,18 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F65">
-        <v>50</v>
+        <v>999</v>
       </c>
       <c r="G65">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>3</v>
-      </c>
-      <c r="B66" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C66" t="s">
         <v>1</v>
@@ -1738,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F66">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="G66">
         <v>3</v>
@@ -1749,10 +1742,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>3</v>
-      </c>
-      <c r="B67" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C67" t="s">
         <v>1</v>
@@ -1761,21 +1751,18 @@
         <v>0</v>
       </c>
       <c r="E67">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F67">
-        <v>65</v>
+        <v>999</v>
       </c>
       <c r="G67">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>3</v>
-      </c>
-      <c r="B68" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C68" t="s">
         <v>1</v>
@@ -1784,18 +1771,18 @@
         <v>0</v>
       </c>
       <c r="E68">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F68">
-        <v>999</v>
+        <v>65</v>
       </c>
       <c r="G68">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C69" t="s">
         <v>1</v>
@@ -1807,15 +1794,15 @@
         <v>4</v>
       </c>
       <c r="F69">
-        <v>65</v>
+        <v>999</v>
       </c>
       <c r="G69">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C70" t="s">
         <v>1</v>
@@ -1827,15 +1814,15 @@
         <v>4</v>
       </c>
       <c r="F70">
-        <v>999</v>
+        <v>65</v>
       </c>
       <c r="G70">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C71" t="s">
         <v>1</v>
@@ -1847,109 +1834,9 @@
         <v>4</v>
       </c>
       <c r="F71">
-        <v>65</v>
+        <v>999</v>
       </c>
       <c r="G71">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>4</v>
-      </c>
-      <c r="C72" t="s">
-        <v>1</v>
-      </c>
-      <c r="D72" t="s">
-        <v>0</v>
-      </c>
-      <c r="E72">
-        <v>4</v>
-      </c>
-      <c r="F72">
-        <v>999</v>
-      </c>
-      <c r="G72">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>5</v>
-      </c>
-      <c r="C73" t="s">
-        <v>1</v>
-      </c>
-      <c r="D73" t="s">
-        <v>0</v>
-      </c>
-      <c r="E73">
-        <v>4</v>
-      </c>
-      <c r="F73">
-        <v>65</v>
-      </c>
-      <c r="G73">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>5</v>
-      </c>
-      <c r="C74" t="s">
-        <v>1</v>
-      </c>
-      <c r="D74" t="s">
-        <v>0</v>
-      </c>
-      <c r="E74">
-        <v>4</v>
-      </c>
-      <c r="F74">
-        <v>999</v>
-      </c>
-      <c r="G74">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>6</v>
-      </c>
-      <c r="C75" t="s">
-        <v>1</v>
-      </c>
-      <c r="D75" t="s">
-        <v>0</v>
-      </c>
-      <c r="E75">
-        <v>4</v>
-      </c>
-      <c r="F75">
-        <v>65</v>
-      </c>
-      <c r="G75">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>6</v>
-      </c>
-      <c r="C76" t="s">
-        <v>1</v>
-      </c>
-      <c r="D76" t="s">
-        <v>0</v>
-      </c>
-      <c r="E76">
-        <v>4</v>
-      </c>
-      <c r="F76">
-        <v>999</v>
-      </c>
-      <c r="G76">
         <v>4</v>
       </c>
     </row>

--- a/pybna/sql/stress/tables/stress_bike_lane_km.xlsx
+++ b/pybna/sql/stress/tables/stress_bike_lane_km.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\pybna\pybna\sql\stress\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA93591-6BDD-4831-B407-741601D47EFC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A215E14C-9D36-437D-B8F1-2A2B8C853273}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30255" yWindow="2745" windowWidth="21600" windowHeight="11775" xr2:uid="{F3E79472-7ECD-48CF-B429-F08E35A731E7}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{F31A81E7-F0F4-47CF-B45A-C4DA9B9EE623}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$74</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="9">
   <si>
     <t>f</t>
   </si>
@@ -48,9 +51,6 @@
     <t>parking</t>
   </si>
   <si>
-    <t>low_parking</t>
-  </si>
-  <si>
     <t>reach</t>
   </si>
   <si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>stress</t>
+  </si>
+  <si>
+    <t>low_parking</t>
   </si>
 </sst>
 </file>
@@ -408,11 +411,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AEACECA-1E2B-401F-92A0-EED56FF40BBC}">
-  <dimension ref="A1:G71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B444F16D-22D4-4BD5-8243-27F9ED583C8A}">
+  <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,16 +432,16 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -451,7 +455,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="F2">
         <v>50</v>
@@ -471,13 +475,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="F3">
         <v>55</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -491,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="F4">
         <v>65</v>
@@ -511,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="F5">
         <v>70</v>
@@ -531,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="F6">
         <v>80</v>
@@ -551,7 +555,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="F7">
         <v>999</v>
@@ -571,7 +575,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>40</v>
@@ -591,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>50</v>
@@ -611,7 +615,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>55</v>
@@ -631,7 +635,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>65</v>
@@ -651,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>70</v>
@@ -671,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>80</v>
@@ -691,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>999</v>
@@ -711,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="F15">
         <v>50</v>
@@ -731,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="F16">
         <v>55</v>
@@ -751,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="F17">
         <v>65</v>
@@ -771,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="F18">
         <v>70</v>
@@ -791,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="F19">
         <v>80</v>
@@ -811,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="F20">
         <v>999</v>
@@ -831,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>50</v>
@@ -851,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>55</v>
@@ -871,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>65</v>
@@ -891,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>70</v>
@@ -911,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>80</v>
@@ -931,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>999</v>
@@ -951,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="F27">
         <v>50</v>
@@ -971,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="F28">
         <v>999</v>
@@ -991,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="F29">
         <v>50</v>
@@ -1011,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="F30">
         <v>999</v>
@@ -1031,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="F31">
         <v>50</v>
@@ -1051,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="F32">
         <v>999</v>
@@ -1071,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="F33">
         <v>999</v>
@@ -1091,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F34">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G34">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1111,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F35">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G35">
         <v>3</v>
@@ -1131,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F36">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G36">
         <v>3</v>
@@ -1151,10 +1155,10 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F37">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="G37">
         <v>3</v>
@@ -1171,13 +1175,13 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F38">
-        <v>999</v>
+        <v>65</v>
       </c>
       <c r="G38">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1188,16 +1192,16 @@
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F39">
-        <v>40</v>
+        <v>999</v>
       </c>
       <c r="G39">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1211,13 +1215,13 @@
         <v>1</v>
       </c>
       <c r="E40">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F40">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G40">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1231,13 +1235,13 @@
         <v>1</v>
       </c>
       <c r="E41">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F41">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="G41">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -1251,13 +1255,13 @@
         <v>1</v>
       </c>
       <c r="E42">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F42">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="G42">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -1271,13 +1275,13 @@
         <v>1</v>
       </c>
       <c r="E43">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F43">
-        <v>999</v>
+        <v>55</v>
       </c>
       <c r="G43">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -1288,16 +1292,16 @@
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F44">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="G44">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -1308,16 +1312,16 @@
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F45">
-        <v>50</v>
+        <v>999</v>
       </c>
       <c r="G45">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -1331,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>14</v>
+        <v>4.75</v>
       </c>
       <c r="F46">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="G46">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -1351,13 +1355,13 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>14</v>
+        <v>4.75</v>
       </c>
       <c r="F47">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="G47">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -1371,13 +1375,13 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>14</v>
+        <v>4.75</v>
       </c>
       <c r="F48">
-        <v>999</v>
+        <v>55</v>
       </c>
       <c r="G48">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -1388,16 +1392,16 @@
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>14</v>
+        <v>4.75</v>
       </c>
       <c r="F49">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="G49">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -1408,16 +1412,16 @@
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50">
-        <v>14</v>
+        <v>4.75</v>
       </c>
       <c r="F50">
-        <v>50</v>
+        <v>999</v>
       </c>
       <c r="G50">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -1431,13 +1435,13 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <v>14</v>
+        <v>4.75</v>
       </c>
       <c r="F51">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="G51">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -1451,13 +1455,13 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>14</v>
+        <v>4.75</v>
       </c>
       <c r="F52">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="G52">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -1471,13 +1475,13 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>14</v>
+        <v>4.75</v>
       </c>
       <c r="F53">
-        <v>999</v>
+        <v>55</v>
       </c>
       <c r="G53">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -1488,16 +1492,16 @@
         <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54">
-        <v>15</v>
+        <v>4.75</v>
       </c>
       <c r="F54">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="G54">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -1508,16 +1512,16 @@
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55">
-        <v>15</v>
+        <v>4.75</v>
       </c>
       <c r="F55">
-        <v>50</v>
+        <v>999</v>
       </c>
       <c r="G55">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -1531,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F56">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="G56">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -1551,13 +1555,13 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F57">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="G57">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -1571,18 +1575,18 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F58">
-        <v>999</v>
+        <v>55</v>
       </c>
       <c r="G58">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C59" t="s">
         <v>1</v>
@@ -1591,18 +1595,18 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F59">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="G59">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C60" t="s">
         <v>1</v>
@@ -1611,13 +1615,13 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F60">
-        <v>50</v>
+        <v>999</v>
       </c>
       <c r="G60">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -1628,16 +1632,16 @@
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F61">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="G61">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -1651,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F62">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="G62">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -1671,18 +1675,18 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F63">
-        <v>999</v>
+        <v>50</v>
       </c>
       <c r="G63">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C64" t="s">
         <v>1</v>
@@ -1691,10 +1695,10 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F64">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="G64">
         <v>3</v>
@@ -1702,7 +1706,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C65" t="s">
         <v>1</v>
@@ -1711,18 +1715,18 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F65">
-        <v>999</v>
+        <v>65</v>
       </c>
       <c r="G65">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C66" t="s">
         <v>1</v>
@@ -1731,18 +1735,18 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F66">
-        <v>65</v>
+        <v>999</v>
       </c>
       <c r="G66">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C67" t="s">
         <v>1</v>
@@ -1751,18 +1755,18 @@
         <v>0</v>
       </c>
       <c r="E67">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="F67">
-        <v>999</v>
+        <v>65</v>
       </c>
       <c r="G67">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C68" t="s">
         <v>1</v>
@@ -1771,18 +1775,18 @@
         <v>0</v>
       </c>
       <c r="E68">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="F68">
-        <v>65</v>
+        <v>999</v>
       </c>
       <c r="G68">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C69" t="s">
         <v>1</v>
@@ -1791,18 +1795,18 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="F69">
-        <v>999</v>
+        <v>65</v>
       </c>
       <c r="G69">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C70" t="s">
         <v>1</v>
@@ -1811,32 +1815,92 @@
         <v>0</v>
       </c>
       <c r="E70">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="F70">
-        <v>65</v>
+        <v>999</v>
       </c>
       <c r="G70">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
+        <v>5</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1</v>
+      </c>
+      <c r="D71" t="s">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>1.5</v>
+      </c>
+      <c r="F71">
+        <v>65</v>
+      </c>
+      <c r="G71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>5</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1</v>
+      </c>
+      <c r="D72" t="s">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>1.5</v>
+      </c>
+      <c r="F72">
+        <v>999</v>
+      </c>
+      <c r="G72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73">
         <v>6</v>
       </c>
-      <c r="C71" t="s">
-        <v>1</v>
-      </c>
-      <c r="D71" t="s">
-        <v>0</v>
-      </c>
-      <c r="E71">
-        <v>4</v>
-      </c>
-      <c r="F71">
+      <c r="C73" t="s">
+        <v>1</v>
+      </c>
+      <c r="D73" t="s">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>1.5</v>
+      </c>
+      <c r="F73">
+        <v>65</v>
+      </c>
+      <c r="G73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>6</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1</v>
+      </c>
+      <c r="D74" t="s">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>1.5</v>
+      </c>
+      <c r="F74">
         <v>999</v>
       </c>
-      <c r="G71">
+      <c r="G74">
         <v>4</v>
       </c>
     </row>
